--- a/V_BD/Hamamatsu_S10362-33-025C/dV_dT_errors.xlsx
+++ b/V_BD/Hamamatsu_S10362-33-025C/dV_dT_errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="16" r:id="rId1"/>
@@ -152,7 +152,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -330,11 +329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391469200"/>
-        <c:axId val="391469592"/>
+        <c:axId val="459482944"/>
+        <c:axId val="459483336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391469200"/>
+        <c:axId val="459482944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,12 +390,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391469592"/>
+        <c:crossAx val="459483336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391469592"/>
+        <c:axId val="459483336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,7 +452,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391469200"/>
+        <c:crossAx val="459482944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -517,7 +516,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -686,11 +684,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390113952"/>
-        <c:axId val="390114344"/>
+        <c:axId val="460739944"/>
+        <c:axId val="460740336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="390113952"/>
+        <c:axId val="460739944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,12 +745,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390114344"/>
+        <c:crossAx val="460740336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390114344"/>
+        <c:axId val="460740336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +807,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390113952"/>
+        <c:crossAx val="460739944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -873,7 +871,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1039,11 +1036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390115128"/>
-        <c:axId val="390115520"/>
+        <c:axId val="460741120"/>
+        <c:axId val="460741512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="390115128"/>
+        <c:axId val="460741120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,12 +1097,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390115520"/>
+        <c:crossAx val="460741512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390115520"/>
+        <c:axId val="460741512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1159,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390115128"/>
+        <c:crossAx val="460741120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1398,11 +1395,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390116304"/>
-        <c:axId val="390116696"/>
+        <c:axId val="461922112"/>
+        <c:axId val="461922504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="390116304"/>
+        <c:axId val="461922112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,12 +1456,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390116696"/>
+        <c:crossAx val="461922504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390116696"/>
+        <c:axId val="461922504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1518,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390116304"/>
+        <c:crossAx val="461922112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1766,11 +1763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390117480"/>
-        <c:axId val="390117872"/>
+        <c:axId val="461923288"/>
+        <c:axId val="461923680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="390117480"/>
+        <c:axId val="461923288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,12 +1824,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390117872"/>
+        <c:crossAx val="461923680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390117872"/>
+        <c:axId val="461923680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,7 +1886,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390117480"/>
+        <c:crossAx val="461923288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2187,11 +2184,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="392065216"/>
-        <c:axId val="392065608"/>
+        <c:axId val="461924464"/>
+        <c:axId val="461924856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="392065216"/>
+        <c:axId val="461924464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,12 +2245,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392065608"/>
+        <c:crossAx val="461924856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="392065608"/>
+        <c:axId val="461924856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2307,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392065216"/>
+        <c:crossAx val="461924464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2374,7 +2371,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2552,11 +2548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391470376"/>
-        <c:axId val="391470768"/>
+        <c:axId val="459484120"/>
+        <c:axId val="459484512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391470376"/>
+        <c:axId val="459484120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,12 +2609,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391470768"/>
+        <c:crossAx val="459484512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391470768"/>
+        <c:axId val="459484512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2675,7 +2671,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391470376"/>
+        <c:crossAx val="459484120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2739,7 +2735,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2914,11 +2909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391471552"/>
-        <c:axId val="391471944"/>
+        <c:axId val="459485296"/>
+        <c:axId val="459485688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391471552"/>
+        <c:axId val="459485296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2975,12 +2970,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391471944"/>
+        <c:crossAx val="459485688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391471944"/>
+        <c:axId val="459485688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3037,7 +3032,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391471552"/>
+        <c:crossAx val="459485296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3101,7 +3096,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3276,11 +3270,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391472728"/>
-        <c:axId val="391473120"/>
+        <c:axId val="459486472"/>
+        <c:axId val="459486864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391472728"/>
+        <c:axId val="459486472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3337,12 +3331,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391473120"/>
+        <c:crossAx val="459486864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391473120"/>
+        <c:axId val="459486864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,7 +3393,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391472728"/>
+        <c:crossAx val="459486472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3463,7 +3457,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3638,11 +3631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391473904"/>
-        <c:axId val="391474296"/>
+        <c:axId val="459487648"/>
+        <c:axId val="460734456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391473904"/>
+        <c:axId val="459487648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3699,12 +3692,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391474296"/>
+        <c:crossAx val="460734456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391474296"/>
+        <c:axId val="460734456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3761,7 +3754,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391473904"/>
+        <c:crossAx val="459487648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3825,7 +3818,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4018,11 +4010,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391475080"/>
-        <c:axId val="391475472"/>
+        <c:axId val="460735240"/>
+        <c:axId val="460735632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391475080"/>
+        <c:axId val="460735240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4079,12 +4071,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391475472"/>
+        <c:crossAx val="460735632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391475472"/>
+        <c:axId val="460735632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4141,7 +4133,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391475080"/>
+        <c:crossAx val="460735240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4205,7 +4197,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4368,11 +4359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="391476256"/>
-        <c:axId val="390110816"/>
+        <c:axId val="460736416"/>
+        <c:axId val="460736808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="391476256"/>
+        <c:axId val="460736416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,12 +4420,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390110816"/>
+        <c:crossAx val="460736808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390110816"/>
+        <c:axId val="460736808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4491,7 +4482,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391476256"/>
+        <c:crossAx val="460736416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4555,7 +4546,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4724,11 +4714,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390111600"/>
-        <c:axId val="390111992"/>
+        <c:axId val="460737592"/>
+        <c:axId val="460737984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="390111600"/>
+        <c:axId val="460737592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4785,12 +4775,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390111992"/>
+        <c:crossAx val="460737984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390111992"/>
+        <c:axId val="460737984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4847,7 +4837,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390111600"/>
+        <c:crossAx val="460737592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4911,7 +4901,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5080,11 +5069,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390112776"/>
-        <c:axId val="390113168"/>
+        <c:axId val="460738768"/>
+        <c:axId val="460739160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="390112776"/>
+        <c:axId val="460738768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5141,12 +5130,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390113168"/>
+        <c:crossAx val="460739160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390113168"/>
+        <c:axId val="460739160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5203,7 +5192,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390112776"/>
+        <c:crossAx val="460738768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16314,8 +16303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17162,7 +17151,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B32"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18101,7 +18090,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18509,8 +18498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19360,8 +19349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19731,31 +19720,31 @@
         <v>0.7559289460184544</v>
       </c>
       <c r="F9">
-        <f>G8-F8</f>
+        <f t="shared" ref="F9:L9" si="6">G8-F8</f>
         <v>113.29465</v>
       </c>
       <c r="G9">
-        <f>H8-G8</f>
+        <f t="shared" si="6"/>
         <v>113.587</v>
       </c>
       <c r="H9">
-        <f>I8-H8</f>
+        <f t="shared" si="6"/>
         <v>118.04599999999999</v>
       </c>
       <c r="I9">
-        <f>J8-I8</f>
+        <f t="shared" si="6"/>
         <v>115.35700000000003</v>
       </c>
       <c r="J9">
-        <f>K8-J8</f>
+        <f t="shared" si="6"/>
         <v>113.76999999999998</v>
       </c>
       <c r="K9">
-        <f>L8-K8</f>
+        <f t="shared" si="6"/>
         <v>113.54200000000003</v>
       </c>
       <c r="L9">
-        <f>M8-L8</f>
+        <f t="shared" si="6"/>
         <v>110.82799999999997</v>
       </c>
     </row>
@@ -19813,43 +19802,43 @@
         <v>138.39851000000002</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:P12" si="6">H11-G11</f>
+        <f t="shared" ref="G12:P12" si="7">H11-G11</f>
         <v>138.84200000000001</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140.471</v>
       </c>
       <c r="I12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>141.19400000000002</v>
       </c>
       <c r="J12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>139.77799999999991</v>
       </c>
       <c r="K12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>139.86900000000003</v>
       </c>
       <c r="L12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140.11300000000006</v>
       </c>
       <c r="M12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>139.75099999999986</v>
       </c>
       <c r="N12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136.35000000000014</v>
       </c>
       <c r="O12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>139.95000000000005</v>
       </c>
       <c r="P12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>135.15999999999985</v>
       </c>
     </row>
@@ -19913,43 +19902,43 @@
         <v>152.40096</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:P15" si="7">H14-G14</f>
+        <f t="shared" ref="G15:P15" si="8">H14-G14</f>
         <v>153.38300000000001</v>
       </c>
       <c r="H15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>154.46199999999999</v>
       </c>
       <c r="I15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>155.74400000000003</v>
       </c>
       <c r="J15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>153.22000000000003</v>
       </c>
       <c r="K15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>156.93499999999995</v>
       </c>
       <c r="L15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>153.97499999999991</v>
       </c>
       <c r="M15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>154.69000000000005</v>
       </c>
       <c r="N15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>153.45000000000005</v>
       </c>
       <c r="O15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>154.79999999999995</v>
       </c>
       <c r="P15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>155.62000000000012</v>
       </c>
     </row>
@@ -20007,35 +19996,35 @@
         <v>162.66459999999998</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:N18" si="8">H17-G17</f>
+        <f t="shared" ref="G18:N18" si="9">H17-G17</f>
         <v>162.51100000000002</v>
       </c>
       <c r="H18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>165.45999999999998</v>
       </c>
       <c r="I18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>164.17500000000001</v>
       </c>
       <c r="J18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>163.447</v>
       </c>
       <c r="K18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>163.97699999999998</v>
       </c>
       <c r="L18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>163.46399999999994</v>
       </c>
       <c r="M18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>160.17000000000007</v>
       </c>
       <c r="N18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>160.57999999999993</v>
       </c>
     </row>
@@ -20099,43 +20088,43 @@
         <v>172.43965</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:P21" si="9">H20-G20</f>
+        <f t="shared" ref="G21:P21" si="10">H20-G20</f>
         <v>172.863</v>
       </c>
       <c r="H21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>174.82099999999997</v>
       </c>
       <c r="I21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>173.42700000000002</v>
       </c>
       <c r="J21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>172.19399999999996</v>
       </c>
       <c r="K21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>173.774</v>
       </c>
       <c r="L21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>170.60000000000014</v>
       </c>
       <c r="M21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>172.94999999999982</v>
       </c>
       <c r="N21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>172.90000000000009</v>
       </c>
       <c r="O21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>168.11999999999989</v>
       </c>
       <c r="P21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>171.8900000000001</v>
       </c>
     </row>
@@ -20193,35 +20182,35 @@
         <v>185.60073</v>
       </c>
       <c r="G24">
-        <f t="shared" ref="G24:N24" si="10">H23-G23</f>
+        <f t="shared" ref="G24:N24" si="11">H23-G23</f>
         <v>185.72900000000001</v>
       </c>
       <c r="H24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>187.57999999999998</v>
       </c>
       <c r="I24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>185.32500000000005</v>
       </c>
       <c r="J24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>186.00299999999993</v>
       </c>
       <c r="K24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>188.02800000000002</v>
       </c>
       <c r="L24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>187</v>
       </c>
       <c r="M24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>185.09999999999991</v>
       </c>
       <c r="N24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>188.60000000000014</v>
       </c>
     </row>
@@ -20246,51 +20235,51 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:R27" si="11">H26-G26</f>
+        <f t="shared" ref="G27:R27" si="12">H26-G26</f>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20309,31 +20298,31 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:M30" si="12">H29-G29</f>
+        <f t="shared" ref="G30:M30" si="13">H29-G29</f>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20352,27 +20341,27 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:L33" si="13">H32-G32</f>
+        <f t="shared" ref="G33:L33" si="14">H32-G32</f>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>

--- a/V_BD/Hamamatsu_S10362-33-025C/dV_dT_errors.xlsx
+++ b/V_BD/Hamamatsu_S10362-33-025C/dV_dT_errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="16" r:id="rId1"/>
@@ -152,6 +152,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -329,11 +330,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459482944"/>
-        <c:axId val="459483336"/>
+        <c:axId val="407195768"/>
+        <c:axId val="407196552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459482944"/>
+        <c:axId val="407195768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -390,12 +391,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459483336"/>
+        <c:crossAx val="407196552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459483336"/>
+        <c:axId val="407196552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,7 +453,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459482944"/>
+        <c:crossAx val="407195768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -684,11 +685,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460739944"/>
-        <c:axId val="460740336"/>
+        <c:axId val="512711336"/>
+        <c:axId val="512711728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460739944"/>
+        <c:axId val="512711336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,12 +746,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460740336"/>
+        <c:crossAx val="512711728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460740336"/>
+        <c:axId val="512711728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,7 +808,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460739944"/>
+        <c:crossAx val="512711336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1036,11 +1037,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460741120"/>
-        <c:axId val="460741512"/>
+        <c:axId val="512712512"/>
+        <c:axId val="512712904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460741120"/>
+        <c:axId val="512712512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,12 +1098,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460741512"/>
+        <c:crossAx val="512712904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460741512"/>
+        <c:axId val="512712904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1160,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460741120"/>
+        <c:crossAx val="512712512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1395,11 +1396,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="461922112"/>
-        <c:axId val="461922504"/>
+        <c:axId val="588189168"/>
+        <c:axId val="588189560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="461922112"/>
+        <c:axId val="588189168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,12 +1457,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461922504"/>
+        <c:crossAx val="588189560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461922504"/>
+        <c:axId val="588189560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,7 +1519,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461922112"/>
+        <c:crossAx val="588189168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1763,11 +1764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="461923288"/>
-        <c:axId val="461923680"/>
+        <c:axId val="588190344"/>
+        <c:axId val="588190736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="461923288"/>
+        <c:axId val="588190344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,12 +1825,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461923680"/>
+        <c:crossAx val="588190736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461923680"/>
+        <c:axId val="588190736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +1887,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461923288"/>
+        <c:crossAx val="588190344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2184,11 +2185,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="461924464"/>
-        <c:axId val="461924856"/>
+        <c:axId val="588191520"/>
+        <c:axId val="588191912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="461924464"/>
+        <c:axId val="588191520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,12 +2246,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461924856"/>
+        <c:crossAx val="588191912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461924856"/>
+        <c:axId val="588191912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2308,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461924464"/>
+        <c:crossAx val="588191520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2371,6 +2372,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2548,11 +2550,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459484120"/>
-        <c:axId val="459484512"/>
+        <c:axId val="407197336"/>
+        <c:axId val="407197728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459484120"/>
+        <c:axId val="407197336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,12 +2611,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459484512"/>
+        <c:crossAx val="407197728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459484512"/>
+        <c:axId val="407197728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2673,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459484120"/>
+        <c:crossAx val="407197336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2909,11 +2911,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459485296"/>
-        <c:axId val="459485688"/>
+        <c:axId val="407198512"/>
+        <c:axId val="407198904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459485296"/>
+        <c:axId val="407198512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,12 +2972,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459485688"/>
+        <c:crossAx val="407198904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459485688"/>
+        <c:axId val="407198904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,7 +3034,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459485296"/>
+        <c:crossAx val="407198512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3270,11 +3272,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459486472"/>
-        <c:axId val="459486864"/>
+        <c:axId val="407199688"/>
+        <c:axId val="407200080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459486472"/>
+        <c:axId val="407199688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3331,12 +3333,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459486864"/>
+        <c:crossAx val="407200080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459486864"/>
+        <c:axId val="407200080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3393,7 +3395,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459486472"/>
+        <c:crossAx val="407199688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3631,11 +3633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459487648"/>
-        <c:axId val="460734456"/>
+        <c:axId val="512705456"/>
+        <c:axId val="512705848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459487648"/>
+        <c:axId val="512705456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3692,12 +3694,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460734456"/>
+        <c:crossAx val="512705848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460734456"/>
+        <c:axId val="512705848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3754,7 +3756,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459487648"/>
+        <c:crossAx val="512705456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4010,11 +4012,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460735240"/>
-        <c:axId val="460735632"/>
+        <c:axId val="512706632"/>
+        <c:axId val="512707024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460735240"/>
+        <c:axId val="512706632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4071,12 +4073,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460735632"/>
+        <c:crossAx val="512707024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460735632"/>
+        <c:axId val="512707024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +4135,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460735240"/>
+        <c:crossAx val="512706632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4359,11 +4361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460736416"/>
-        <c:axId val="460736808"/>
+        <c:axId val="512707808"/>
+        <c:axId val="512708200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460736416"/>
+        <c:axId val="512707808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4420,12 +4422,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460736808"/>
+        <c:crossAx val="512708200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460736808"/>
+        <c:axId val="512708200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4482,7 +4484,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460736416"/>
+        <c:crossAx val="512707808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4714,11 +4716,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460737592"/>
-        <c:axId val="460737984"/>
+        <c:axId val="512708984"/>
+        <c:axId val="512709376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460737592"/>
+        <c:axId val="512708984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4775,12 +4777,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460737984"/>
+        <c:crossAx val="512709376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460737984"/>
+        <c:axId val="512709376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4837,7 +4839,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460737592"/>
+        <c:crossAx val="512708984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5069,11 +5071,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460738768"/>
-        <c:axId val="460739160"/>
+        <c:axId val="512710160"/>
+        <c:axId val="512710552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460738768"/>
+        <c:axId val="512710160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5130,12 +5132,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460739160"/>
+        <c:crossAx val="512710552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460739160"/>
+        <c:axId val="512710552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5192,7 +5194,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460738768"/>
+        <c:crossAx val="512710160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16303,8 +16305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17151,7 +17153,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17909,6 +17911,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>(_xlfn.VAR.S(F21:R21) / 13)^0.5</f>
+        <v>0.999778693048895</v>
+      </c>
       <c r="D21">
         <f>AVERAGE(F21:AD21)</f>
         <v>176.07732769230768</v>
@@ -19349,8 +19355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19535,8 +19541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19715,16 +19721,20 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>(_xlfn.VAR.S(F9:L9)/ 7) ^0.5</f>
+        <v>0.83349721531759191</v>
+      </c>
       <c r="D9">
         <f>2/(7)^0.5</f>
         <v>0.7559289460184544</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:L9" si="6">G8-F8</f>
+        <f>G8-F8</f>
         <v>113.29465</v>
       </c>
       <c r="G9">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F9:L9" si="6">H8-G8</f>
         <v>113.587</v>
       </c>
       <c r="H9">
@@ -19793,6 +19803,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>(_xlfn.VAR.S(F12:P12)/ 11) ^0.5</f>
+        <v>0.54878546489513436</v>
+      </c>
       <c r="D12">
         <f>AVERAGE(G12:T12)</f>
         <v>139.14779999999999</v>
@@ -19893,6 +19907,10 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>(_xlfn.VAR.S(F15:P15)/ 11) ^0.5</f>
+        <v>0.39849437871124699</v>
+      </c>
       <c r="D15">
         <f>AVERAGE(G15:U15)</f>
         <v>154.62790000000001</v>
@@ -19987,6 +20005,10 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>(_xlfn.VAR.S(F18:N18)/ 9) ^0.5</f>
+        <v>0.56500971869713779</v>
+      </c>
       <c r="D18">
         <f>AVERAGE(G18:Q18)</f>
         <v>162.97300000000001</v>
@@ -20079,6 +20101,10 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>(_xlfn.VAR.S(F21:P21)/ 11) ^0.5</f>
+        <v>0.53442478425000328</v>
+      </c>
       <c r="D21">
         <f>AVERAGE(G21:R21)</f>
         <v>172.35390000000001</v>
@@ -20173,6 +20199,10 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>(_xlfn.VAR.S(F24:N24)/ 11) ^0.5</f>
+        <v>0.38623834257719253</v>
+      </c>
       <c r="D24">
         <f>AVERAGE(E24:AC24)</f>
         <v>186.55174777777779</v>
@@ -20581,8 +20611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20690,6 +20720,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>(_xlfn.VAR.S(F6:L6)/ 7) ^0.5</f>
+        <v>0.53260600676310088</v>
+      </c>
       <c r="D6">
         <f>AVERAGE(G6:S6)</f>
         <v>110.527</v>
@@ -20762,6 +20796,10 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>(_xlfn.VAR.S(F9:N9)/ 9) ^0.5</f>
+        <v>0.29100164153794283</v>
+      </c>
       <c r="D9">
         <f>AVERAGE(G9:V9)</f>
         <v>135.64249999999998</v>
